--- a/Data/Networks/Networks_model_Gini Coefficient.xlsx_10_10_2.xlsx
+++ b/Data/Networks/Networks_model_Gini Coefficient.xlsx_10_10_2.xlsx
@@ -417,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1693601055286745</v>
+        <v>0.148693117424099</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.125307935668976</v>
+        <v>0.1246229465411474</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1799523906558221</v>
+        <v>0.08917619802713919</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1497621795658873</v>
+        <v>0.1888697535807799</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1600384010647382</v>
+        <v>0.1541219368189664</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1535269429381801</v>
+        <v>0.1344016460203115</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1373641307134063</v>
+        <v>0.1200264658865693</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1708515734288806</v>
+        <v>0.1512082972667038</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.09571714576329135</v>
+        <v>0.1315768174789712</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0.1336319491410468</v>
+        <v>0.1257212985132238</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0.1765507361906515</v>
+        <v>0.1893166794459082</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>0.1555101475674617</v>
+        <v>0.1893325217200379</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>0.1109952498774332</v>
+        <v>0.1263327277479391</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>0.07564251713934311</v>
+        <v>0.1328265999959896</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.07970663829443794</v>
+        <v>0.1414701734466121</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.1575652889067268</v>
+        <v>0.1468359588293332</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>0.1578219187170641</v>
+        <v>0.1422835136504423</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0.2654269375611468</v>
+        <v>0.1705155304426201</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>0.1241492245736906</v>
+        <v>0.1850889944442461</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>0.251722194109791</v>
+        <v>0.1694693670627418</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>0.2505740536968959</v>
+        <v>0.1681458026522458</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>0.09587597902721523</v>
+        <v>0.08695249891645229</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>0.1681152292256497</v>
+        <v>0.1955646217922542</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -739,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>0.1006929096681796</v>
+        <v>0.1696531262475109</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
